--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,78 +436,104 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171289.68</v>
+        <v>76311.53</v>
+      </c>
+      <c r="C2" t="n">
+        <v>82239.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34257.94</v>
+        <v>64053.64</v>
+      </c>
+      <c r="C3" t="n">
+        <v>63857.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1789.22</v>
+        <v>29105.83</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29533.04</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4850.6</v>
+        <v>1741.22</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1940.65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63786.92</v>
+        <v>4716.82</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3895.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71756.78999999999</v>
+        <v>35185.81</v>
+      </c>
+      <c r="C7" t="n">
+        <v>36293.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>29106.15</v>
+        <v>175929.04</v>
+      </c>
+      <c r="C8" t="n">
+        <v>181466.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,92 +443,71 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76311.53</v>
-      </c>
-      <c r="C2" t="n">
-        <v>82239.83</v>
+        <v>181466.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64053.64</v>
-      </c>
-      <c r="C3" t="n">
-        <v>63857.43</v>
+        <v>36293.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29105.83</v>
-      </c>
-      <c r="C4" t="n">
-        <v>29533.04</v>
+        <v>63857.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1741.22</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1940.65</v>
+        <v>82239.83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4716.82</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3895.64</v>
+        <v>29533.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35185.81</v>
-      </c>
-      <c r="C7" t="n">
-        <v>36293.32</v>
+        <v>1940.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175929.04</v>
-      </c>
-      <c r="C8" t="n">
-        <v>181466.59</v>
+        <v>3895.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,75 +439,93 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>181466.59</v>
-      </c>
+        <v>63857.43</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36293.32</v>
-      </c>
+        <v>82239.83</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63857.43</v>
-      </c>
+        <v>29533.04</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82239.83</v>
-      </c>
+        <v>1940.65</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29533.04</v>
+        <v>3895.64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4334.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1940.65</v>
+        <v>36293.32</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4334.54</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3895.64</v>
+        <v>181466.59</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4334.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -455,6 +460,9 @@
         <v>63857.43</v>
       </c>
       <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
+        <v>63842.81</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -466,6 +474,9 @@
         <v>82239.83</v>
       </c>
       <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>82105.48</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -477,6 +488,9 @@
         <v>29533.04</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>29760.77</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -488,6 +502,9 @@
         <v>1940.65</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>2043.61</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -501,6 +518,9 @@
       <c r="C6" t="n">
         <v>4334.54</v>
       </c>
+      <c r="D6" t="n">
+        <v>4189.21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -514,6 +534,9 @@
       <c r="C7" t="n">
         <v>4334.54</v>
       </c>
+      <c r="D7" t="n">
+        <v>36388.38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -526,6 +549,9 @@
       </c>
       <c r="C8" t="n">
         <v>4334.54</v>
+      </c>
+      <c r="D8" t="n">
+        <v>181941.88</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -463,6 +468,9 @@
       <c r="D2" t="n">
         <v>63842.81</v>
       </c>
+      <c r="E2" t="n">
+        <v>63880.42</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -477,6 +485,9 @@
       <c r="D3" t="n">
         <v>82105.48</v>
       </c>
+      <c r="E3" t="n">
+        <v>82343.17</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -491,6 +502,9 @@
       <c r="D4" t="n">
         <v>29760.77</v>
       </c>
+      <c r="E4" t="n">
+        <v>28518.66</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -505,6 +519,9 @@
       <c r="D5" t="n">
         <v>2043.61</v>
       </c>
+      <c r="E5" t="n">
+        <v>2346.96</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -521,6 +538,9 @@
       <c r="D6" t="n">
         <v>4189.21</v>
       </c>
+      <c r="E6" t="n">
+        <v>4632.37</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -537,6 +557,9 @@
       <c r="D7" t="n">
         <v>36388.38</v>
       </c>
+      <c r="E7" t="n">
+        <v>36344.32</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -552,6 +575,9 @@
       </c>
       <c r="D8" t="n">
         <v>181941.88</v>
+      </c>
+      <c r="E8" t="n">
+        <v>181721.58</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -471,6 +476,9 @@
       <c r="E2" t="n">
         <v>63880.42</v>
       </c>
+      <c r="F2" t="n">
+        <v>63779.85</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -488,6 +496,9 @@
       <c r="E3" t="n">
         <v>82343.17</v>
       </c>
+      <c r="F3" t="n">
+        <v>81603.59</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -505,6 +516,9 @@
       <c r="E4" t="n">
         <v>28518.66</v>
       </c>
+      <c r="F4" t="n">
+        <v>30152.61</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -522,6 +536,9 @@
       <c r="E5" t="n">
         <v>2346.96</v>
       </c>
+      <c r="F5" t="n">
+        <v>2333.77</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -541,6 +558,9 @@
       <c r="E6" t="n">
         <v>4632.37</v>
       </c>
+      <c r="F6" t="n">
+        <v>4706.01</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -560,6 +580,9 @@
       <c r="E7" t="n">
         <v>36344.32</v>
       </c>
+      <c r="F7" t="n">
+        <v>36515.17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -578,6 +601,9 @@
       </c>
       <c r="E8" t="n">
         <v>181721.58</v>
+      </c>
+      <c r="F8" t="n">
+        <v>182575.83</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -479,6 +484,9 @@
       <c r="F2" t="n">
         <v>63779.85</v>
       </c>
+      <c r="G2" t="n">
+        <v>64115.26</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -499,6 +507,9 @@
       <c r="F3" t="n">
         <v>81603.59</v>
       </c>
+      <c r="G3" t="n">
+        <v>81594.98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -519,6 +530,9 @@
       <c r="F4" t="n">
         <v>30152.61</v>
       </c>
+      <c r="G4" t="n">
+        <v>29871.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -539,6 +553,9 @@
       <c r="F5" t="n">
         <v>2333.77</v>
       </c>
+      <c r="G5" t="n">
+        <v>2226.66</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -561,6 +578,9 @@
       <c r="F6" t="n">
         <v>4706.01</v>
       </c>
+      <c r="G6" t="n">
+        <v>4575.99</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -583,6 +603,9 @@
       <c r="F7" t="n">
         <v>36515.17</v>
       </c>
+      <c r="G7" t="n">
+        <v>36476.88</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -604,6 +627,9 @@
       </c>
       <c r="F8" t="n">
         <v>182575.83</v>
+      </c>
+      <c r="G8" t="n">
+        <v>182384.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -487,6 +492,9 @@
       <c r="G2" t="n">
         <v>64115.26</v>
       </c>
+      <c r="H2" t="n">
+        <v>64075.99</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -510,6 +518,9 @@
       <c r="G3" t="n">
         <v>81594.98</v>
       </c>
+      <c r="H3" t="n">
+        <v>83182.36</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -533,6 +544,9 @@
       <c r="G4" t="n">
         <v>29871.52</v>
       </c>
+      <c r="H4" t="n">
+        <v>29918.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -556,6 +570,9 @@
       <c r="G5" t="n">
         <v>2226.66</v>
       </c>
+      <c r="H5" t="n">
+        <v>2419.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -581,6 +598,9 @@
       <c r="G6" t="n">
         <v>4575.99</v>
       </c>
+      <c r="H6" t="n">
+        <v>4889.21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -606,6 +626,9 @@
       <c r="G7" t="n">
         <v>36476.88</v>
       </c>
+      <c r="H7" t="n">
+        <v>36897.01</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -630,6 +653,9 @@
       </c>
       <c r="G8" t="n">
         <v>182384.41</v>
+      </c>
+      <c r="H8" t="n">
+        <v>184485.03</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -495,6 +500,9 @@
       <c r="H2" t="n">
         <v>64075.99</v>
       </c>
+      <c r="I2" t="n">
+        <v>64152.6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -521,6 +529,9 @@
       <c r="H3" t="n">
         <v>83182.36</v>
       </c>
+      <c r="I3" t="n">
+        <v>83113.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -547,6 +558,9 @@
       <c r="H4" t="n">
         <v>29918.27</v>
       </c>
+      <c r="I4" t="n">
+        <v>29615.72</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -573,6 +587,9 @@
       <c r="H5" t="n">
         <v>2419.2</v>
       </c>
+      <c r="I5" t="n">
+        <v>2328.35</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -601,6 +618,9 @@
       <c r="H6" t="n">
         <v>4889.21</v>
       </c>
+      <c r="I6" t="n">
+        <v>4819.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -629,6 +649,9 @@
       <c r="H7" t="n">
         <v>36897.01</v>
       </c>
+      <c r="I7" t="n">
+        <v>36805.76</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -656,6 +679,9 @@
       </c>
       <c r="H8" t="n">
         <v>184485.03</v>
+      </c>
+      <c r="I8" t="n">
+        <v>184028.78</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -503,6 +508,9 @@
       <c r="I2" t="n">
         <v>64152.6</v>
       </c>
+      <c r="J2" t="n">
+        <v>64045</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -532,6 +540,9 @@
       <c r="I3" t="n">
         <v>83113.08</v>
       </c>
+      <c r="J3" t="n">
+        <v>100262.03</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,6 +572,9 @@
       <c r="I4" t="n">
         <v>29615.72</v>
       </c>
+      <c r="J4" t="n">
+        <v>30029.23</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -590,6 +604,9 @@
       <c r="I5" t="n">
         <v>2328.35</v>
       </c>
+      <c r="J5" t="n">
+        <v>2101.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -621,6 +638,9 @@
       <c r="I6" t="n">
         <v>4819.03</v>
       </c>
+      <c r="J6" t="n">
+        <v>4483.65</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -652,6 +672,9 @@
       <c r="I7" t="n">
         <v>36805.76</v>
       </c>
+      <c r="J7" t="n">
+        <v>40184.22</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -682,6 +705,9 @@
       </c>
       <c r="I8" t="n">
         <v>184028.78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>200921.11</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -511,6 +516,9 @@
       <c r="J2" t="n">
         <v>64045</v>
       </c>
+      <c r="K2" t="n">
+        <v>63856.07</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -543,6 +551,9 @@
       <c r="J3" t="n">
         <v>100262.03</v>
       </c>
+      <c r="K3" t="n">
+        <v>100987.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -575,6 +586,9 @@
       <c r="J4" t="n">
         <v>30029.23</v>
       </c>
+      <c r="K4" t="n">
+        <v>29859.77</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -607,6 +621,9 @@
       <c r="J5" t="n">
         <v>2101.2</v>
       </c>
+      <c r="K5" t="n">
+        <v>1858.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -641,6 +658,9 @@
       <c r="J6" t="n">
         <v>4483.65</v>
       </c>
+      <c r="K6" t="n">
+        <v>4015.08</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -675,6 +695,9 @@
       <c r="J7" t="n">
         <v>40184.22</v>
       </c>
+      <c r="K7" t="n">
+        <v>40115.38</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -708,6 +731,9 @@
       </c>
       <c r="J8" t="n">
         <v>200921.11</v>
+      </c>
+      <c r="K8" t="n">
+        <v>200576.92</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -519,6 +524,9 @@
       <c r="K2" t="n">
         <v>63856.07</v>
       </c>
+      <c r="L2" t="n">
+        <v>64029</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -554,6 +562,9 @@
       <c r="K3" t="n">
         <v>100987.8</v>
       </c>
+      <c r="L3" t="n">
+        <v>100952.97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -589,6 +600,9 @@
       <c r="K4" t="n">
         <v>29859.77</v>
       </c>
+      <c r="L4" t="n">
+        <v>28849.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -624,6 +638,9 @@
       <c r="K5" t="n">
         <v>1858.2</v>
       </c>
+      <c r="L5" t="n">
+        <v>1636.32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -661,6 +678,9 @@
       <c r="K6" t="n">
         <v>4015.08</v>
       </c>
+      <c r="L6" t="n">
+        <v>4752.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -698,6 +718,9 @@
       <c r="K7" t="n">
         <v>40115.38</v>
       </c>
+      <c r="L7" t="n">
+        <v>40044.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -734,6 +757,9 @@
       </c>
       <c r="K8" t="n">
         <v>200576.92</v>
+      </c>
+      <c r="L8" t="n">
+        <v>200220.59</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GRIM.xlsx
+++ b/backend/src/excel_handler/files/GRIM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -527,6 +532,9 @@
       <c r="L2" t="n">
         <v>64029</v>
       </c>
+      <c r="M2" t="n">
+        <v>63892.27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -565,6 +573,9 @@
       <c r="L3" t="n">
         <v>100952.97</v>
       </c>
+      <c r="M3" t="n">
+        <v>100064.12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -603,6 +614,9 @@
       <c r="L4" t="n">
         <v>28849.4</v>
       </c>
+      <c r="M4" t="n">
+        <v>28658.93</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -641,6 +655,9 @@
       <c r="L5" t="n">
         <v>1636.32</v>
       </c>
+      <c r="M5" t="n">
+        <v>1857.41</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -681,6 +698,9 @@
       <c r="L6" t="n">
         <v>4752.9</v>
       </c>
+      <c r="M6" t="n">
+        <v>4143.05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -721,6 +741,9 @@
       <c r="L7" t="n">
         <v>40044.12</v>
       </c>
+      <c r="M7" t="n">
+        <v>39723.16</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -760,6 +783,9 @@
       </c>
       <c r="L8" t="n">
         <v>200220.59</v>
+      </c>
+      <c r="M8" t="n">
+        <v>198615.78</v>
       </c>
     </row>
   </sheetData>
